--- a/code/results_cellsMejorado/final/results_100(2).xlsx
+++ b/code/results_cellsMejorado/final/results_100(2).xlsx
@@ -508,10 +508,10 @@
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C2" s="2">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D2" s="3">
         <v>1</v>
@@ -521,10 +521,10 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2">
-        <v>722738630</v>
-      </c>
-      <c r="C3" s="3">
+      <c r="B3" s="3">
+        <v>110689095</v>
+      </c>
+      <c r="C3" s="2">
         <v>203889635.2941177</v>
       </c>
       <c r="D3" s="2">
@@ -536,7 +536,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="2">
-        <v>1.505823226e+37</v>
+        <v>1.670124101e+33</v>
       </c>
       <c r="C4" s="2">
         <v>5.157661972e+52</v>
@@ -550,7 +550,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="2">
-        <v>241638.15</v>
+        <v>224945.43</v>
       </c>
       <c r="C5" s="3">
         <v>75969.9066666666</v>
@@ -563,10 +563,10 @@
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2">
-        <v>256.71064</v>
-      </c>
-      <c r="C6" s="3">
+      <c r="B6" s="3">
+        <v>196.99525</v>
+      </c>
+      <c r="C6" s="2">
         <v>232.2052745098</v>
       </c>
       <c r="D6" s="2">
@@ -578,7 +578,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="3">
-        <v>232.32033</v>
+        <v>174.98017</v>
       </c>
       <c r="C7" s="2">
         <v>397.7697509804</v>
@@ -592,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>5.5934282</v>
+        <v>2.7551077</v>
       </c>
       <c r="C8" s="2">
         <v>11.8029604314</v>
@@ -606,7 +606,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="3">
-        <v>400.43625</v>
+        <v>330.411</v>
       </c>
       <c r="C9" s="2">
         <v>478.1017470588</v>
@@ -620,7 +620,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="3">
-        <v>236.36674</v>
+        <v>180.96006</v>
       </c>
       <c r="C10" s="2">
         <v>406.9707431373</v>
@@ -634,7 +634,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="3">
-        <v>2647.5046</v>
+        <v>2479.0088</v>
       </c>
       <c r="C11" s="2">
         <v>3755.8304921569</v>
@@ -648,7 +648,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="3">
-        <v>6323.1866</v>
+        <v>4651.2664</v>
       </c>
       <c r="C12" s="2">
         <v>11274.4739215686</v>
@@ -662,7 +662,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="2">
-        <v>8677.079599999999</v>
+        <v>7980.7025</v>
       </c>
       <c r="C13" s="3">
         <v>217.3028745098</v>
@@ -675,10 +675,10 @@
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="2">
-        <v>224757310</v>
-      </c>
-      <c r="C14" s="3">
+      <c r="B14" s="3">
+        <v>54612870</v>
+      </c>
+      <c r="C14" s="2">
         <v>138167225.4901961</v>
       </c>
       <c r="D14" s="2">
@@ -690,7 +690,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="2">
-        <v>132064667</v>
+        <v>32233928.5</v>
       </c>
       <c r="C15" s="3">
         <v>27264.2754901961</v>
@@ -704,7 +704,7 @@
         <v>17</v>
       </c>
       <c r="B16" s="2">
-        <v>1867839.8</v>
+        <v>1615669.87</v>
       </c>
       <c r="C16" s="3">
         <v>168.3185235294</v>
@@ -718,7 +718,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="2">
-        <v>46092851</v>
+        <v>13321995.4</v>
       </c>
       <c r="C17" s="3">
         <v>508.9713137255</v>
@@ -732,7 +732,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="3">
-        <v>1866.2642</v>
+        <v>1671.8404</v>
       </c>
       <c r="C18" s="2">
         <v>3047.4744117647</v>
@@ -746,7 +746,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="3">
-        <v>1528.1358</v>
+        <v>1058.2745</v>
       </c>
       <c r="C19" s="2">
         <v>1827.1334901961</v>
@@ -760,7 +760,7 @@
         <v>21</v>
       </c>
       <c r="B20" s="2">
-        <v>4202483.8</v>
+        <v>4282734.4</v>
       </c>
       <c r="C20" s="3">
         <v>24198.424117647</v>
@@ -774,7 +774,7 @@
         <v>22</v>
       </c>
       <c r="B21" s="2">
-        <v>18790729.1</v>
+        <v>3208229.3</v>
       </c>
       <c r="C21" s="3">
         <v>132.1995372549</v>
@@ -787,10 +787,10 @@
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="2">
-        <v>1151.5489</v>
-      </c>
-      <c r="C22" s="3">
+      <c r="B22" s="3">
+        <v>917.78449</v>
+      </c>
+      <c r="C22" s="2">
         <v>938.4169313725</v>
       </c>
       <c r="D22" s="2">
@@ -802,7 +802,7 @@
         <v>24</v>
       </c>
       <c r="B23" s="3">
-        <v>442.01554</v>
+        <v>358.70562</v>
       </c>
       <c r="C23" s="2">
         <v>617.6803078431</v>
@@ -816,7 +816,7 @@
         <v>25</v>
       </c>
       <c r="B24" s="2">
-        <v>4942.14821</v>
+        <v>3482.64756</v>
       </c>
       <c r="C24" s="3">
         <v>170.737927451</v>
@@ -830,7 +830,7 @@
         <v>26</v>
       </c>
       <c r="B25" s="3">
-        <v>685.24421</v>
+        <v>632.7367</v>
       </c>
       <c r="C25" s="2">
         <v>843.4995019608</v>
@@ -843,10 +843,10 @@
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="2">
-        <v>926.32037</v>
-      </c>
-      <c r="C26" s="3">
+      <c r="B26" s="3">
+        <v>853.23778</v>
+      </c>
+      <c r="C26" s="2">
         <v>884.9782784314</v>
       </c>
       <c r="D26" s="2">
@@ -858,7 +858,7 @@
         <v>28</v>
       </c>
       <c r="B27" s="2">
-        <v>633.11427</v>
+        <v>590.64621</v>
       </c>
       <c r="C27" s="3">
         <v>566.717427451</v>
@@ -872,7 +872,7 @@
         <v>29</v>
       </c>
       <c r="B28" s="2">
-        <v>1952.6404</v>
+        <v>675.4623</v>
       </c>
       <c r="C28" s="3">
         <v>574.5068745098</v>
@@ -886,7 +886,7 @@
         <v>30</v>
       </c>
       <c r="B29" s="2">
-        <v>696.8018499999999</v>
+        <v>675.30388</v>
       </c>
       <c r="C29" s="3">
         <v>576.507327451</v>
@@ -900,7 +900,7 @@
         <v>31</v>
       </c>
       <c r="B30" s="2">
-        <v>583.59431</v>
+        <v>577.35496</v>
       </c>
       <c r="C30" s="3">
         <v>501.3251117647</v>
@@ -914,7 +914,7 @@
         <v>32</v>
       </c>
       <c r="B31" s="3">
-        <v>1199.7691</v>
+        <v>1070.16596</v>
       </c>
       <c r="C31" s="2">
         <v>2217.738372549</v>
@@ -928,7 +928,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="2">
-        <v>25404264</v>
+        <v>5917658</v>
       </c>
       <c r="C32" s="2">
         <v>2386399.333333333</v>
